--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_27_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_27_9.xlsx
@@ -518,1046 +518,1046 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_0</t>
+          <t>model_27_9_8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9573520557631873</v>
+        <v>0.9652338631272467</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7953618091050281</v>
+        <v>0.818928773062582</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1782318205680806</v>
+        <v>0.9366120185945011</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9242926818317577</v>
+        <v>0.6121884223830715</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8581752353057549</v>
+        <v>0.9290275742077765</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2851869994872931</v>
+        <v>0.2324813173514422</v>
       </c>
       <c r="H2" t="n">
-        <v>1.368416524786904</v>
+        <v>1.21082412828685</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3454132435911164</v>
+        <v>0.2290547568644025</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3158522464293712</v>
+        <v>0.04325490586308873</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3306328254096204</v>
+        <v>0.1361547869815724</v>
       </c>
       <c r="L2" t="n">
-        <v>1.197789662377086</v>
+        <v>0.9162881283177512</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5340290249483572</v>
+        <v>0.4821631646563663</v>
       </c>
       <c r="N2" t="n">
-        <v>1.048740507699214</v>
+        <v>1.039732727854575</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5567637461328884</v>
+        <v>0.5026898487911354</v>
       </c>
       <c r="P2" t="n">
-        <v>92.50922035065274</v>
+        <v>92.91789082532213</v>
       </c>
       <c r="Q2" t="n">
-        <v>147.3586324697218</v>
+        <v>147.7673029443912</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_1</t>
+          <t>model_27_9_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9575582988072198</v>
+        <v>0.9658420415524609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7947533489781895</v>
+        <v>0.8189236805144866</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.198209848376073</v>
+        <v>0.9375923316076132</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9224100211969241</v>
+        <v>0.596530848457442</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8552346913850618</v>
+        <v>0.929495644177549</v>
       </c>
       <c r="G3" t="n">
-        <v>0.283807851302186</v>
+        <v>0.2284144254216305</v>
       </c>
       <c r="H3" t="n">
-        <v>1.372485300456775</v>
+        <v>1.210858182179413</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3512700497520508</v>
+        <v>0.2255123604370263</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3237067392995965</v>
+        <v>0.04500128716082927</v>
       </c>
       <c r="K3" t="n">
-        <v>0.337488048098238</v>
+        <v>0.1352568330746081</v>
       </c>
       <c r="L3" t="n">
-        <v>1.19182952435035</v>
+        <v>0.8974814218606005</v>
       </c>
       <c r="M3" t="n">
-        <v>0.532736192971893</v>
+        <v>0.4779272177033136</v>
       </c>
       <c r="N3" t="n">
-        <v>1.048504801363177</v>
+        <v>1.039037666797187</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5554158756226548</v>
+        <v>0.4982735688066722</v>
       </c>
       <c r="P3" t="n">
-        <v>92.51891569945259</v>
+        <v>92.95318728921225</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.3683278185216</v>
+        <v>147.8025994082813</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_2</t>
+          <t>model_27_9_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9577526020825035</v>
+        <v>0.9645943616824865</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7941405401863956</v>
+        <v>0.8189086603431234</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2178641474961629</v>
+        <v>0.9354271329206121</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9204925062878451</v>
+        <v>0.6270353788830142</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8522828818088158</v>
+        <v>0.9283432345038045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2825085444056797</v>
+        <v>0.2367576664571872</v>
       </c>
       <c r="H4" t="n">
-        <v>1.376583155669226</v>
+        <v>1.210958622134481</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3570319508406729</v>
+        <v>0.2333363839793053</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3317066448073903</v>
+        <v>0.04159893749384951</v>
       </c>
       <c r="K4" t="n">
-        <v>0.344369534151604</v>
+        <v>0.1374676366633645</v>
       </c>
       <c r="L4" t="n">
-        <v>1.187155458262591</v>
+        <v>0.9352169381827476</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5315153284766863</v>
+        <v>0.4865775030323404</v>
       </c>
       <c r="N4" t="n">
-        <v>1.048282740477139</v>
+        <v>1.040463586648587</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5541430363983493</v>
+        <v>0.5072921146907149</v>
       </c>
       <c r="P4" t="n">
-        <v>92.52809296633842</v>
+        <v>92.88143633072261</v>
       </c>
       <c r="Q4" t="n">
-        <v>147.3775050854074</v>
+        <v>147.7308484497916</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_3</t>
+          <t>model_27_9_10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9579355593671907</v>
+        <v>0.966420605608892</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7935237005867779</v>
+        <v>0.818895168671854</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2371806035075479</v>
+        <v>0.9383807011874866</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9185415460575799</v>
+        <v>0.5802142015315821</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8493227418121325</v>
+        <v>0.9297637331039537</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2812851082005354</v>
+        <v>0.224545564912233</v>
       </c>
       <c r="H5" t="n">
-        <v>1.380707964912155</v>
+        <v>1.211048841002383</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3626948090398009</v>
+        <v>0.2226635585280018</v>
       </c>
       <c r="J5" t="n">
-        <v>0.339846084776116</v>
+        <v>0.04682117874610956</v>
       </c>
       <c r="K5" t="n">
-        <v>0.351270440723326</v>
+        <v>0.1347425264229855</v>
       </c>
       <c r="L5" t="n">
-        <v>1.182562569271612</v>
+        <v>0.8787948382938565</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5303631851859021</v>
+        <v>0.4738623902698261</v>
       </c>
       <c r="N5" t="n">
-        <v>1.048073646437496</v>
+        <v>1.038376450732695</v>
       </c>
       <c r="O5" t="n">
-        <v>0.552941843982411</v>
+        <v>0.4940356932539884</v>
       </c>
       <c r="P5" t="n">
-        <v>92.53677300819312</v>
+        <v>92.98735326129328</v>
       </c>
       <c r="Q5" t="n">
-        <v>147.3861851272621</v>
+        <v>147.8367653803623</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_4</t>
+          <t>model_27_9_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.95810750765366</v>
+        <v>0.9639219486236983</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7929031960336919</v>
+        <v>0.8188617982780728</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2561557687981793</v>
+        <v>0.9340254692014738</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9165593753482101</v>
+        <v>0.6409102438819267</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8463559331475985</v>
+        <v>0.9274266226052397</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2801352892171659</v>
+        <v>0.241254095677481</v>
       </c>
       <c r="H6" t="n">
-        <v>1.384857281715802</v>
+        <v>1.211271988979253</v>
       </c>
       <c r="I6" t="n">
-        <v>0.368257613639285</v>
+        <v>0.2384013463787079</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3481157354057903</v>
+        <v>0.04005139220631854</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3581868938076613</v>
+        <v>0.1392260815298149</v>
       </c>
       <c r="L6" t="n">
-        <v>1.177978591907495</v>
+        <v>0.9542649338318921</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5292780830689722</v>
+        <v>0.491176236881917</v>
       </c>
       <c r="N6" t="n">
-        <v>1.047877134110103</v>
+        <v>1.041232058715773</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5518105468218925</v>
+        <v>0.5120866261609593</v>
       </c>
       <c r="P6" t="n">
-        <v>92.54496523345824</v>
+        <v>92.84380912401134</v>
       </c>
       <c r="Q6" t="n">
-        <v>147.3943773525273</v>
+        <v>147.6932212430804</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_5</t>
+          <t>model_27_9_11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9582688589006346</v>
+        <v>0.9669712016341955</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7922793021071614</v>
+        <v>0.8188447140272763</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2747920431786794</v>
+        <v>0.9389889818899018</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9145467932380931</v>
+        <v>0.5633955867437184</v>
       </c>
       <c r="F7" t="n">
-        <v>0.843383539617611</v>
+        <v>0.9298477562985706</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2790563326856927</v>
+        <v>0.2208637267557675</v>
       </c>
       <c r="H7" t="n">
-        <v>1.389029263275279</v>
+        <v>1.211386231442995</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3737210681733162</v>
+        <v>0.2204655142724876</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3565122629276262</v>
+        <v>0.04869705775897182</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3651163667609058</v>
+        <v>0.1345813348047352</v>
       </c>
       <c r="L7" t="n">
-        <v>1.173397448238692</v>
+        <v>0.8602238643161306</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5282578278508447</v>
+        <v>0.4699614098580516</v>
       </c>
       <c r="N7" t="n">
-        <v>1.047692732684989</v>
+        <v>1.037747198132348</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5507468572269097</v>
+        <v>0.4899686400299419</v>
       </c>
       <c r="P7" t="n">
-        <v>92.55268321654798</v>
+        <v>93.02041877733588</v>
       </c>
       <c r="Q7" t="n">
-        <v>147.402095335617</v>
+        <v>147.8698308964049</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_6</t>
+          <t>model_27_9_5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9584199900876745</v>
+        <v>0.9632147132561766</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7916522543792429</v>
+        <v>0.8187864150844597</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.29307977724776</v>
+        <v>0.932394038846171</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9125063492075057</v>
+        <v>0.6536627797951392</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8404077663693947</v>
+        <v>0.9262607623792091</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2780457177420614</v>
+        <v>0.2459833818366181</v>
       </c>
       <c r="H8" t="n">
-        <v>1.393222334319159</v>
+        <v>1.211776076742052</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3790823438004566</v>
+        <v>0.2442965788043088</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3650250308656238</v>
+        <v>0.0386290268818193</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3720537187738438</v>
+        <v>0.1414626889016722</v>
       </c>
       <c r="L8" t="n">
-        <v>1.168827784623398</v>
+        <v>0.973440145744192</v>
       </c>
       <c r="M8" t="n">
-        <v>0.527300405596337</v>
+        <v>0.4959671176969478</v>
       </c>
       <c r="N8" t="n">
-        <v>1.047520011328372</v>
+        <v>1.042040327707227</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5497486755248903</v>
+        <v>0.5170814646907765</v>
       </c>
       <c r="P8" t="n">
-        <v>92.55993945300546</v>
+        <v>92.8049825976826</v>
       </c>
       <c r="Q8" t="n">
-        <v>147.4093515720745</v>
+        <v>147.6543947167516</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_7</t>
+          <t>model_27_9_12</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9585612607952908</v>
+        <v>0.9674955591224303</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7910223541885983</v>
+        <v>0.8187738647896796</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3110182643135495</v>
+        <v>0.9394291180163395</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9104387048939269</v>
+        <v>0.5462125768714094</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8374297744433467</v>
+        <v>0.9297627914522989</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2771010398697397</v>
+        <v>0.2173573458174962</v>
       </c>
       <c r="H9" t="n">
-        <v>1.397434479794422</v>
+        <v>1.211860000621035</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3843412333452358</v>
+        <v>0.2188750665063168</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3736512788567294</v>
+        <v>0.05061357989850786</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3789962431395923</v>
+        <v>0.1347443329045737</v>
       </c>
       <c r="L9" t="n">
-        <v>1.164261107720612</v>
+        <v>0.8417638229400591</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5264038752419473</v>
+        <v>0.4662159862311633</v>
       </c>
       <c r="N9" t="n">
-        <v>1.047358559091096</v>
+        <v>1.037147932431508</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5488139780172407</v>
+        <v>0.4860637659651612</v>
       </c>
       <c r="P9" t="n">
-        <v>92.56674614886525</v>
+        <v>93.05242504987299</v>
       </c>
       <c r="Q9" t="n">
-        <v>147.4161582679343</v>
+        <v>147.901837168942</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_8</t>
+          <t>model_27_9_13</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.958693043237542</v>
+        <v>0.9679950598355209</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7903898301937745</v>
+        <v>0.8186840773968781</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3286002180075707</v>
+        <v>0.9397121252763002</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9083458912993294</v>
+        <v>0.5288060654780209</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8344516754097033</v>
+        <v>0.929523368743065</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2762198100716037</v>
+        <v>0.2140171822490702</v>
       </c>
       <c r="H10" t="n">
-        <v>1.401664170660314</v>
+        <v>1.212460409330132</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3894956007185364</v>
+        <v>0.2178524095659347</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3823825335254334</v>
+        <v>0.05255503047703989</v>
       </c>
       <c r="K10" t="n">
-        <v>0.385939017202824</v>
+        <v>0.1352036457660183</v>
       </c>
       <c r="L10" t="n">
-        <v>1.159703720042281</v>
+        <v>0.8234256754147258</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5255661804869142</v>
+        <v>0.4626199112112125</v>
       </c>
       <c r="N10" t="n">
-        <v>1.047207950585666</v>
+        <v>1.03657707447369</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5479406208622185</v>
+        <v>0.4823145985867097</v>
       </c>
       <c r="P10" t="n">
-        <v>92.57311663386174</v>
+        <v>93.08339795259984</v>
       </c>
       <c r="Q10" t="n">
-        <v>147.4225287529308</v>
+        <v>147.9328100716689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_9</t>
+          <t>model_27_9_4</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9588156679302623</v>
+        <v>0.96247092779299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7897550428523004</v>
+        <v>0.8186808593607222</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3458317179677213</v>
+        <v>0.9305202625151487</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9062288267628752</v>
+        <v>0.665115337507216</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8314740009901995</v>
+        <v>0.9248289832909704</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2753998181867481</v>
+        <v>0.2509570786537634</v>
       </c>
       <c r="H11" t="n">
-        <v>1.405908996535679</v>
+        <v>1.212481928352724</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3945472282414683</v>
+        <v>0.2510675371532577</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3912149635448017</v>
+        <v>0.03735165577090112</v>
       </c>
       <c r="K11" t="n">
-        <v>0.392880801372838</v>
+        <v>0.1442094398346968</v>
       </c>
       <c r="L11" t="n">
-        <v>1.155157569721073</v>
+        <v>0.992737825922833</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5247854973098515</v>
+        <v>0.5009561644033971</v>
       </c>
       <c r="N11" t="n">
-        <v>1.0470678080797</v>
+        <v>1.042890368236583</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5471267023860713</v>
+        <v>0.5222829054442698</v>
       </c>
       <c r="P11" t="n">
-        <v>92.57906270573328</v>
+        <v>92.76494671170437</v>
       </c>
       <c r="Q11" t="n">
-        <v>147.4284748248023</v>
+        <v>147.6143588307734</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_10</t>
+          <t>model_27_9_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9589294311777204</v>
+        <v>0.9684712425027413</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7891181413653904</v>
+        <v>0.8185768022149025</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3627080499582491</v>
+        <v>0.9398492074093803</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9040894558955044</v>
+        <v>0.5113130579838718</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8284984637919345</v>
+        <v>0.9291438445838199</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2746390828271641</v>
+        <v>0.2108329465607485</v>
       </c>
       <c r="H12" t="n">
-        <v>1.410167959711308</v>
+        <v>1.21317775896596</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3994947338774628</v>
+        <v>0.2173570583342519</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4001404559642132</v>
+        <v>0.05450612847434913</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3998176030879319</v>
+        <v>0.1359317317864631</v>
       </c>
       <c r="L12" t="n">
-        <v>1.150621209520685</v>
+        <v>0.8051947507768515</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5240601900804565</v>
+        <v>0.4591654892963413</v>
       </c>
       <c r="N12" t="n">
-        <v>1.046937792939748</v>
+        <v>1.036032865711153</v>
       </c>
       <c r="O12" t="n">
-        <v>0.546370517326328</v>
+        <v>0.4787131147792832</v>
       </c>
       <c r="P12" t="n">
-        <v>92.58459493876799</v>
+        <v>93.11337836308945</v>
       </c>
       <c r="Q12" t="n">
-        <v>147.434007057837</v>
+        <v>147.9627904821585</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_11</t>
+          <t>model_27_9_3</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9590347703484685</v>
+        <v>0.9616889025504064</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7884794309612612</v>
+        <v>0.8185434165811463</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3792242161628863</v>
+        <v>0.9283918729098903</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9019287221811738</v>
+        <v>0.675112409560891</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8255264709134269</v>
+        <v>0.9231149984573144</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2739346793073293</v>
+        <v>0.2561864850518159</v>
       </c>
       <c r="H13" t="n">
-        <v>1.414439019124711</v>
+        <v>1.213401008852614</v>
       </c>
       <c r="I13" t="n">
-        <v>0.404336652454813</v>
+        <v>0.2587585497511583</v>
       </c>
       <c r="J13" t="n">
-        <v>0.409155074552212</v>
+        <v>0.03623662353476874</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4067461420115581</v>
+        <v>0.1474975793805999</v>
       </c>
       <c r="L13" t="n">
-        <v>1.146096715055898</v>
+        <v>1.012167617292373</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5233876950285795</v>
+        <v>0.5061486788008203</v>
       </c>
       <c r="N13" t="n">
-        <v>1.046817405316036</v>
+        <v>1.043784111370964</v>
       </c>
       <c r="O13" t="n">
-        <v>0.545669392767836</v>
+        <v>0.5276964759295779</v>
       </c>
       <c r="P13" t="n">
-        <v>92.58973119540731</v>
+        <v>92.72369928493022</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.4391433144763</v>
+        <v>147.5731114039992</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_12</t>
+          <t>model_27_9_15</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.959131826729237</v>
+        <v>0.9689257080874099</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7878390475020991</v>
+        <v>0.8184534281828881</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3953840414660412</v>
+        <v>0.9398508680339848</v>
       </c>
       <c r="E14" t="n">
-        <v>0.899747747968364</v>
+        <v>0.4938481524124773</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8225589921271493</v>
+        <v>0.9286377801912952</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2732856628422269</v>
+        <v>0.2077939331034478</v>
       </c>
       <c r="H14" t="n">
-        <v>1.418721266264823</v>
+        <v>1.214002761686125</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4090741052857315</v>
+        <v>0.2173510576073536</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4182541368514427</v>
+        <v>0.056454092098954</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4136641573353648</v>
+        <v>0.1369025748821307</v>
       </c>
       <c r="L14" t="n">
-        <v>1.14158288841162</v>
+        <v>0.7871152593702299</v>
       </c>
       <c r="M14" t="n">
-        <v>0.52276731233143</v>
+        <v>0.4558441982777096</v>
       </c>
       <c r="N14" t="n">
-        <v>1.046706483738015</v>
+        <v>1.035513476471532</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5450225990948996</v>
+        <v>0.4752504295259681</v>
       </c>
       <c r="P14" t="n">
-        <v>92.59447529367579</v>
+        <v>93.14241679317607</v>
       </c>
       <c r="Q14" t="n">
-        <v>147.4438874127448</v>
+        <v>147.9918289122451</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_13</t>
+          <t>model_27_9_2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.95922100567692</v>
+        <v>0.9608668687670323</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7871973011074154</v>
+        <v>0.8183723531401449</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4111880362224283</v>
+        <v>0.9259961170961203</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8975480102164494</v>
+        <v>0.6834905746700817</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8195971143547907</v>
+        <v>0.9211023186943571</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2726893228084393</v>
+        <v>0.2616834287463558</v>
       </c>
       <c r="H15" t="n">
-        <v>1.423012627361043</v>
+        <v>1.214544910870265</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4137072419870206</v>
+        <v>0.2674156997859433</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4274314809617401</v>
+        <v>0.03530215751049387</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4205691151437148</v>
+        <v>0.1513587406883707</v>
       </c>
       <c r="L15" t="n">
-        <v>1.137079160555222</v>
+        <v>1.031731037232812</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5221966323220012</v>
+        <v>0.5115500256537534</v>
       </c>
       <c r="N15" t="n">
-        <v>1.046604564940663</v>
+        <v>1.044723578551963</v>
       </c>
       <c r="O15" t="n">
-        <v>0.544427624055999</v>
+        <v>0.5333277693003697</v>
       </c>
       <c r="P15" t="n">
-        <v>92.59884428702973</v>
+        <v>92.6812395860325</v>
       </c>
       <c r="Q15" t="n">
-        <v>147.4482564060988</v>
+        <v>147.5306517051015</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_14</t>
+          <t>model_27_9_16</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9593025058672041</v>
+        <v>0.969359612287194</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7865543571617138</v>
+        <v>0.8183151508609176</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4266427192845259</v>
+        <v>0.9397270812710505</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8953305435200631</v>
+        <v>0.4765394563502205</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8166411430178671</v>
+        <v>0.9280180531919728</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2721443306607355</v>
+        <v>0.2048924137215462</v>
       </c>
       <c r="H16" t="n">
-        <v>1.427311996486434</v>
+        <v>1.214927422774851</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4182379736409816</v>
+        <v>0.2177983655395238</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4366827905363235</v>
+        <v>0.05838463275838027</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4274603034144226</v>
+        <v>0.1380914703811587</v>
       </c>
       <c r="L16" t="n">
-        <v>1.132589744867013</v>
+        <v>0.7698575417043972</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5216745447697592</v>
+        <v>0.4526504321455423</v>
       </c>
       <c r="N16" t="n">
-        <v>1.046511421866053</v>
+        <v>1.035017585957493</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5438833101557878</v>
+        <v>0.4719206981575472</v>
       </c>
       <c r="P16" t="n">
-        <v>92.60284545197983</v>
+        <v>93.17054049743939</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.4522575710489</v>
+        <v>148.0199526165084</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_15</t>
+          <t>model_27_9_1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9593767146022032</v>
+        <v>0.9600031806635091</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7859104637657051</v>
+        <v>0.8181660121404629</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4417350444969634</v>
+        <v>0.9233211819322853</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8930965882645157</v>
+        <v>0.6900982917742831</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8136934212539201</v>
+        <v>0.918775021282787</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2716480965080972</v>
+        <v>0.2674589150715338</v>
       </c>
       <c r="H17" t="n">
-        <v>1.431617714590401</v>
+        <v>1.215924714085252</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4226624756056684</v>
+        <v>0.2770816744706511</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4460028906661332</v>
+        <v>0.03456515996372524</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4343322596446082</v>
+        <v>0.1558234701911041</v>
       </c>
       <c r="L17" t="n">
-        <v>1.128113762223389</v>
+        <v>1.051428696812191</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5211987111535266</v>
+        <v>0.5171643018147462</v>
       </c>
       <c r="N17" t="n">
-        <v>1.046426611883196</v>
+        <v>1.045710650670275</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5433872193174007</v>
+        <v>0.5391810568206897</v>
       </c>
       <c r="P17" t="n">
-        <v>92.60649562631541</v>
+        <v>92.63757862591926</v>
       </c>
       <c r="Q17" t="n">
-        <v>147.4559077453844</v>
+        <v>147.4869907449883</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_16</t>
+          <t>model_27_9_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9594438402053923</v>
+        <v>0.9697743613088128</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7852657829577202</v>
+        <v>0.8181632367002978</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.4564749650970368</v>
+        <v>0.9394873617657825</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8908475676961943</v>
+        <v>0.4594788842039407</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8107541296466669</v>
+        <v>0.9272963569425656</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2711992272904864</v>
+        <v>0.2021189851042375</v>
       </c>
       <c r="H18" t="n">
-        <v>1.435928698121878</v>
+        <v>1.215943273466416</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4269836657958061</v>
+        <v>0.2186646006171732</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4553858435425187</v>
+        <v>0.06028749869831026</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4411845628435879</v>
+        <v>0.139475985536257</v>
       </c>
       <c r="L18" t="n">
-        <v>1.123650228304203</v>
+        <v>0.7526865900190441</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5207679207578808</v>
+        <v>0.4495764507892262</v>
       </c>
       <c r="N18" t="n">
-        <v>1.046349896908123</v>
+        <v>1.034543587075643</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5429380892827533</v>
+        <v>0.468715851050874</v>
       </c>
       <c r="P18" t="n">
-        <v>92.60980314428765</v>
+        <v>93.19779743964912</v>
       </c>
       <c r="Q18" t="n">
-        <v>147.4592152633567</v>
+        <v>148.0472095587182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_17</t>
+          <t>model_27_9_18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9595040557405645</v>
+        <v>0.9701711796095073</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7846205135133411</v>
+        <v>0.817998886523273</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4708648884793929</v>
+        <v>0.939141018483167</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8885838630565495</v>
+        <v>0.4427736363906246</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8078234554721319</v>
+        <v>0.926484517648553</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2707965657295227</v>
+        <v>0.1994654593003138</v>
       </c>
       <c r="H19" t="n">
-        <v>1.440243617867634</v>
+        <v>1.217042283856943</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4312022499689366</v>
+        <v>0.2199161245596006</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4648300586195278</v>
+        <v>0.06215073322582174</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4480167764190556</v>
+        <v>0.1410334327406567</v>
       </c>
       <c r="L19" t="n">
-        <v>1.119201666479</v>
+        <v>0.7355961742998489</v>
       </c>
       <c r="M19" t="n">
-        <v>0.520381173496431</v>
+        <v>0.446615560969738</v>
       </c>
       <c r="N19" t="n">
-        <v>1.046281079153641</v>
+        <v>1.034090080446277</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5425348773897064</v>
+        <v>0.4656289100218833</v>
       </c>
       <c r="P19" t="n">
-        <v>92.61277483993717</v>
+        <v>93.22422838796265</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.4621869590062</v>
+        <v>148.0736405070317</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_27_9_18</t>
+          <t>model_27_9_0</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9595577459712045</v>
+        <v>0.9590961684724422</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7839748250594482</v>
+        <v>0.8179226319770646</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.4849058859765005</v>
+        <v>0.9203557149108763</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8863069138146603</v>
+        <v>0.6947819845795837</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8049034209883777</v>
+        <v>0.9161182761826177</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2704375389100125</v>
+        <v>0.2735241097696052</v>
       </c>
       <c r="H20" t="n">
-        <v>1.444561339531937</v>
+        <v>1.217552198358559</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4353185421994353</v>
+        <v>0.2877974965005872</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4743295304071576</v>
+        <v>0.03404276016166201</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4548241859271096</v>
+        <v>0.1609202181060882</v>
       </c>
       <c r="L20" t="n">
-        <v>1.11476907358703</v>
+        <v>1.071264338630776</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5200360938531214</v>
+        <v>0.5229953248066422</v>
       </c>
       <c r="N20" t="n">
-        <v>1.046219718890052</v>
+        <v>1.046747236031495</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5421751069915678</v>
+        <v>0.5452603185332325</v>
       </c>
       <c r="P20" t="n">
-        <v>92.61542823423804</v>
+        <v>92.59273101656564</v>
       </c>
       <c r="Q20" t="n">
-        <v>147.4648403533071</v>
+        <v>147.4421431356347</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9596050596536451</v>
+        <v>0.9705513002395141</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7833289580159326</v>
+        <v>0.8178230747947419</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.4986010344962299</v>
+        <v>0.9386961816986616</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8840177770461392</v>
+        <v>0.4265144326047695</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8019939039029107</v>
+        <v>0.9255928198076513</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2701211520976727</v>
+        <v>0.1969235908971637</v>
       </c>
       <c r="H21" t="n">
-        <v>1.44888025542587</v>
+        <v>1.218217937695169</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4393334445209335</v>
+        <v>0.2215235583232251</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4838798487675931</v>
+        <v>0.06396421783989024</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4616070764654401</v>
+        <v>0.1427440820276818</v>
       </c>
       <c r="L21" t="n">
-        <v>1.110349433334433</v>
+        <v>0.7185955392994247</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5197318078563912</v>
+        <v>0.4437607360922817</v>
       </c>
       <c r="N21" t="n">
-        <v>1.04616564611012</v>
+        <v>1.033655656869127</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5418578669099979</v>
+        <v>0.4626525493390916</v>
       </c>
       <c r="P21" t="n">
-        <v>92.61776941830358</v>
+        <v>93.24987897789762</v>
       </c>
       <c r="Q21" t="n">
-        <v>147.4671815373726</v>
+        <v>148.0992910969667</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9596462423903299</v>
+        <v>0.9709156804673229</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7826830107271675</v>
+        <v>0.8176369213000318</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.511947705937132</v>
+        <v>0.9381612208194279</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8817168709645565</v>
+        <v>0.4107742798487015</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7990960301172819</v>
+        <v>0.9246315387249135</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2698457629478324</v>
+        <v>0.1944869786359889</v>
       </c>
       <c r="H22" t="n">
-        <v>1.453199707920156</v>
+        <v>1.219462746971454</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4432461864729579</v>
+        <v>0.2234566587534313</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4934792689065529</v>
+        <v>0.06571980964021261</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4683628232455495</v>
+        <v>0.144588221066028</v>
       </c>
       <c r="L22" t="n">
-        <v>1.105946663364054</v>
+        <v>0.7016736032400236</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5194668063965515</v>
+        <v>0.4410067784467591</v>
       </c>
       <c r="N22" t="n">
-        <v>1.046118580125337</v>
+        <v>1.03323922232306</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5415815837893843</v>
+        <v>0.4597813500151208</v>
       </c>
       <c r="P22" t="n">
-        <v>92.61980946309924</v>
+        <v>93.27478013210339</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.4692215821683</v>
+        <v>148.1241922511724</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9596815549279938</v>
+        <v>0.9712654099799192</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7820371921672737</v>
+        <v>0.8174412816104344</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.5249524557968139</v>
+        <v>0.9375436576472916</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8794061752610196</v>
+        <v>0.3956260603496632</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7962106590904912</v>
+        <v>0.923609545427919</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2696096278458749</v>
+        <v>0.1921483357749013</v>
       </c>
       <c r="H23" t="n">
-        <v>1.457518299603887</v>
+        <v>1.22077099047663</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4470586898807831</v>
+        <v>0.2256882455480503</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5031195315183514</v>
+        <v>0.06740937964338445</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4750894226303576</v>
+        <v>0.1465488315157295</v>
       </c>
       <c r="L23" t="n">
-        <v>1.101560913612572</v>
+        <v>0.6848333937530667</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5192394706162802</v>
+        <v>0.4383472775949467</v>
       </c>
       <c r="N23" t="n">
-        <v>1.046078222939436</v>
+        <v>1.032839531451521</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5413445698542967</v>
+        <v>0.457008628706121</v>
       </c>
       <c r="P23" t="n">
-        <v>92.62156037797428</v>
+        <v>93.29897524616277</v>
       </c>
       <c r="Q23" t="n">
-        <v>147.4709724970433</v>
+        <v>148.1483873652318</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9597111380738553</v>
+        <v>0.9716014517014753</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7813915876166994</v>
+        <v>0.8172371061214724</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.537621323964808</v>
+        <v>0.936850577242109</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8770855205690602</v>
+        <v>0.3811285750521393</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7933375649264303</v>
+        <v>0.9225354087302673</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2694118052132803</v>
+        <v>0.1899012232355263</v>
       </c>
       <c r="H24" t="n">
-        <v>1.461835460206313</v>
+        <v>1.22213631291146</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4507727254127935</v>
+        <v>0.2281927165877739</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5128013432028354</v>
+        <v>0.06902636943427545</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4817874012462877</v>
+        <v>0.1486094748095912</v>
       </c>
       <c r="L24" t="n">
-        <v>1.097189004724342</v>
+        <v>0.6680810887995972</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5190489429844554</v>
+        <v>0.4357765749045333</v>
       </c>
       <c r="N24" t="n">
-        <v>1.04604441362988</v>
+        <v>1.032455483769743</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5411459310667385</v>
+        <v>0.4543284858800886</v>
       </c>
       <c r="P24" t="n">
-        <v>92.62302839115033</v>
+        <v>93.32250243942535</v>
       </c>
       <c r="Q24" t="n">
-        <v>147.4724405102193</v>
+        <v>148.1719145584944</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9597352422797755</v>
+        <v>0.9719246899458109</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7807464601404102</v>
+        <v>0.8170251740737724</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.5499546322543585</v>
+        <v>0.9360886533939712</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8747563880876509</v>
+        <v>0.3673331167984994</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7904779116511993</v>
+        <v>0.9214168283417929</v>
       </c>
       <c r="G25" t="n">
-        <v>0.269250620277303</v>
+        <v>0.1877397276072782</v>
       </c>
       <c r="H25" t="n">
-        <v>1.466149430610798</v>
+        <v>1.223553503490288</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4543883874125252</v>
+        <v>0.2309459558914195</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5225185243721633</v>
+        <v>0.07056505802053728</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4884540454259542</v>
+        <v>0.1507553796848221</v>
       </c>
       <c r="L25" t="n">
-        <v>1.092837038107489</v>
+        <v>0.6514120175214637</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5188936502572594</v>
+        <v>0.4332894270661103</v>
       </c>
       <c r="N25" t="n">
-        <v>1.046016865965971</v>
+        <v>1.032086068633359</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5409840272066456</v>
+        <v>0.4517354550090781</v>
       </c>
       <c r="P25" t="n">
-        <v>92.62422531845144</v>
+        <v>93.34539740595675</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.4736374375205</v>
+        <v>148.1948095250258</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9597541484424628</v>
+        <v>0.9722359922636705</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7801019102515648</v>
+        <v>0.8168063180463812</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.5619520767566644</v>
+        <v>0.9352641664254898</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8724193439875845</v>
+        <v>0.3542853939008829</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7876328843953276</v>
+        <v>0.9202610000034536</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2691241946803585</v>
+        <v>0.1856580475743358</v>
       </c>
       <c r="H26" t="n">
-        <v>1.470459538685386</v>
+        <v>1.225016994753191</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4579055867853514</v>
+        <v>0.2339252692867342</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5322687129519524</v>
+        <v>0.07202034728531924</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4950865923017002</v>
+        <v>0.1529727417016506</v>
       </c>
       <c r="L26" t="n">
-        <v>1.088502581705593</v>
+        <v>0.6348242155324543</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5187718136911049</v>
+        <v>0.4308805490786696</v>
       </c>
       <c r="N26" t="n">
-        <v>1.0459952589229</v>
+        <v>1.031730294555805</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5408570038056335</v>
+        <v>0.4492240260986472</v>
       </c>
       <c r="P26" t="n">
-        <v>92.6251646313298</v>
+        <v>93.36769750240173</v>
       </c>
       <c r="Q26" t="n">
-        <v>147.4745767503988</v>
+        <v>148.2171096214707</v>
       </c>
     </row>
   </sheetData>
